--- a/amk-main-public/classicTKP.xlsx
+++ b/amk-main-public/classicTKP.xlsx
@@ -379,12 +379,33 @@
   <si>
     <t>Модернизация</t>
   </si>
+  <si>
+    <t xml:space="preserve">26. </t>
+  </si>
+  <si>
+    <t>Номер модернизаци</t>
+  </si>
+  <si>
+    <t>Тип БКВ</t>
+  </si>
+  <si>
+    <t>Тип блока концевых выключателей или блока управления привода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25. </t>
+  </si>
+  <si>
+    <t>30.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,8 +486,54 @@
       <color rgb="FF000000"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,8 +572,13 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="109">
     <border>
       <left/>
       <right/>
@@ -1047,6 +1119,949 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1057,7 +2072,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1339,6 +2354,312 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="42" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="8" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="6" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="7" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="3" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="3" applyFill="1" borderId="50" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="3" applyFill="1" borderId="51" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="52" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="53" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="54" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="55" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="57" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="6" applyFill="1" borderId="60" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="61" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="6" applyFill="1" borderId="60" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="7" applyFill="1" borderId="60" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="62" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="63" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="64" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="6" applyFill="1" borderId="64" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="6" applyFill="1" borderId="65" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="67" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="68" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="69" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="6" applyFill="1" borderId="71" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="57" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="72" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="73" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="15" applyFont="1" fillId="4" applyFill="1" borderId="72" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="15" applyFont="1" fillId="2" applyFill="1" borderId="74" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="73" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="76" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="77" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="79" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="3" applyFill="1" borderId="80" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="63" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="81" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="6" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="5" applyFill="1" borderId="84" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="7" applyFill="1" borderId="64" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="7" applyFill="1" borderId="65" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="90" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="92" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="93" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="6" applyFill="1" borderId="93" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="6" applyFill="1" borderId="94" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="95" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="64" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="78" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="101" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="6" applyFill="1" borderId="101" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="6" applyFill="1" borderId="102" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="52" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="6" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="6" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="103" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="104" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="7" applyFill="1" borderId="104" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="7" applyFill="1" borderId="105" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="106" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="6" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="6" applyFill="1" borderId="108" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="авто" xfId="1"/>
@@ -1694,8 +3015,8 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="B20" sqref="B20" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="A43" sqref="A43" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1826,47 +3147,47 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" customHeight="1" ht="0">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" customHeight="1" ht="21">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="145"/>
     </row>
     <row r="8" customHeight="1" ht="21">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="146" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="77"/>
@@ -1889,33 +3210,32 @@
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="147"/>
     </row>
     <row r="9" customHeight="1" ht="21">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="148" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="11"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="134"/>
     </row>
     <row r="10" customHeight="1" ht="21" customFormat="1" s="3">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="149" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="61"/>
@@ -1933,11 +3253,11 @@
       <c r="N10" s="28"/>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="12"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="135"/>
     </row>
     <row r="11" customHeight="1" ht="21" customFormat="1" s="3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="150" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="63"/>
@@ -1965,33 +3285,32 @@
       </c>
       <c r="O11" s="68"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="Q11" s="151"/>
     </row>
     <row r="12" customHeight="1" ht="21">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="124" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="Q12" s="147"/>
     </row>
     <row r="13" customHeight="1" ht="21">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="126" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -2010,80 +3329,79 @@
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
       <c r="O13" s="34"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="147"/>
     </row>
     <row r="14" customHeight="1" ht="21">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="158"/>
     </row>
     <row r="15" customHeight="1" ht="21">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="51"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="184"/>
+      <c r="O15" s="185"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
     <row r="16" customHeight="1" ht="21">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="178"/>
+      <c r="M16" s="178"/>
+      <c r="N16" s="178"/>
+      <c r="O16" s="179"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" customHeight="1" ht="21">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="126" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -2094,7 +3412,7 @@
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -2103,12 +3421,12 @@
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="O17" s="125"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
     <row r="18" customHeight="1" ht="21">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="126" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="15" t="s">
@@ -2119,7 +3437,7 @@
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -2128,18 +3446,20 @@
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="O18" s="125"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
     <row r="19" customHeight="1" ht="21">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="126" t="s">
         <v>30</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="44"/>
+      <c r="C19" s="44" t="s">
+        <v>119</v>
+      </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
@@ -2151,12 +3471,12 @@
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="O19" s="125"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" customHeight="1" ht="33">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="126" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="15" t="s">
@@ -2176,12 +3496,12 @@
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="O20" s="125"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
     <row r="21" customHeight="1" ht="33">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="126" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -2201,23 +3521,23 @@
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="O21" s="125"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
     <row r="22" customHeight="1" ht="33">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="126" t="s">
         <v>112</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="102"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="86"/>
       <c r="H22" s="86"/>
       <c r="I22" s="86"/>
@@ -2226,12 +3546,12 @@
       <c r="L22" s="86"/>
       <c r="M22" s="86"/>
       <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
+      <c r="O22" s="127"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
     <row r="23" customHeight="1" ht="36">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="126" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -2249,12 +3569,12 @@
       <c r="L23" s="86"/>
       <c r="M23" s="86"/>
       <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
+      <c r="O23" s="127"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
     <row r="24" customHeight="1" ht="48">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="126" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -2265,7 +3585,7 @@
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -2274,12 +3594,12 @@
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
       <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
+      <c r="O24" s="125"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
     <row r="25" customHeight="1" ht="45">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="126" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="14" t="s">
@@ -2290,7 +3610,7 @@
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -2299,12 +3619,12 @@
       <c r="L25" s="23"/>
       <c r="M25" s="23"/>
       <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
+      <c r="O25" s="125"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
     <row r="26" customHeight="1" ht="30">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="126" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="14" t="s">
@@ -2315,7 +3635,7 @@
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
-      <c r="F26" s="46"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
@@ -2324,12 +3644,12 @@
       <c r="L26" s="23"/>
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
+      <c r="O26" s="125"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" customHeight="1" ht="24">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="124" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -2338,7 +3658,7 @@
       <c r="C27" s="44"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
@@ -2347,21 +3667,23 @@
       <c r="L27" s="23"/>
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
+      <c r="O27" s="125"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" customHeight="1" ht="33">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="126" t="s">
         <v>100</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
+        <v>56</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
@@ -2370,23 +3692,23 @@
       <c r="L28" s="23"/>
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
+      <c r="O28" s="125"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
     <row r="29" customHeight="1" ht="54">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="126" t="s">
         <v>57</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>95</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
@@ -2395,23 +3717,23 @@
       <c r="L29" s="23"/>
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
+      <c r="O29" s="125"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
     <row r="30" customHeight="1" ht="45">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="126" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="38" t="s">
         <v>95</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
@@ -2420,23 +3742,23 @@
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
+      <c r="O30" s="125"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
     <row r="31" customHeight="1" ht="30">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="126" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" s="38" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
@@ -2445,23 +3767,23 @@
       <c r="L31" s="23"/>
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
+      <c r="O31" s="125"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
     <row r="32" customHeight="1" ht="33">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="126" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
@@ -2470,96 +3792,92 @@
       <c r="L32" s="23"/>
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
+      <c r="O32" s="125"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" customHeight="1" ht="33">
-      <c r="A33" s="19" t="s">
+    <row r="33" customHeight="1" ht="30">
+      <c r="A33" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
+      <c r="B33" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="128"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
     <row r="34" customHeight="1" ht="51">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
+      <c r="B34" s="160" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="161" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="162"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
     <row r="35" customHeight="1" ht="48">
-      <c r="A35" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
+      <c r="A35" s="163" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="164"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="164"/>
+      <c r="L35" s="164"/>
+      <c r="M35" s="164"/>
+      <c r="N35" s="164"/>
+      <c r="O35" s="165"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
     <row r="36" customHeight="1" ht="48">
-      <c r="A36" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
+      <c r="A36" s="126" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
@@ -2568,21 +3886,23 @@
       <c r="L36" s="23"/>
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
+      <c r="O36" s="125"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
     <row r="37" customHeight="1" ht="36">
-      <c r="A37" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="40"/>
+      <c r="A37" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
@@ -2591,21 +3911,23 @@
       <c r="L37" s="23"/>
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
+      <c r="O37" s="125"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
     <row r="38" customHeight="1" ht="33">
-      <c r="A38" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="40"/>
+      <c r="A38" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
@@ -2614,270 +3936,238 @@
       <c r="L38" s="23"/>
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
+      <c r="O38" s="125"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
     <row r="39" customHeight="1" ht="39">
-      <c r="A39" s="20" t="s">
-        <v>76</v>
+      <c r="A39" s="126" t="s">
+        <v>118</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
+        <v>85</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="125"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
     <row r="40" customHeight="1" ht="42">
-      <c r="A40" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
+      <c r="A40" s="126" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="188" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="162"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
     <row r="41" customHeight="1" ht="21">
-      <c r="A41" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="27"/>
+      <c r="A41" s="159" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="192" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="193"/>
+      <c r="D41" s="193"/>
+      <c r="E41" s="193"/>
+      <c r="F41" s="193"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="194"/>
+      <c r="I41" s="194"/>
+      <c r="J41" s="194"/>
+      <c r="K41" s="194"/>
+      <c r="L41" s="194"/>
+      <c r="M41" s="194"/>
+      <c r="N41" s="194"/>
+      <c r="O41" s="195"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" customHeight="1" ht="39">
-      <c r="A42" s="19" t="s">
+    <row r="42" customHeight="1" ht="21">
+      <c r="A42" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
+      <c r="B42" s="201" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="202"/>
+      <c r="D42" s="202"/>
+      <c r="E42" s="202"/>
+      <c r="F42" s="202"/>
+      <c r="G42" s="202"/>
+      <c r="H42" s="202"/>
+      <c r="I42" s="202"/>
+      <c r="J42" s="202"/>
+      <c r="K42" s="202"/>
+      <c r="L42" s="202"/>
+      <c r="M42" s="202"/>
+      <c r="N42" s="202"/>
+      <c r="O42" s="203"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" customHeight="1" ht="33">
-      <c r="A43" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
+    <row r="43" customHeight="1" ht="21">
+      <c r="A43" s="196" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="197" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="198"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="198"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="198"/>
+      <c r="H43" s="198"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="198"/>
+      <c r="K43" s="198"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
+      <c r="O43" s="199"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" customHeight="1" ht="33">
-      <c r="A44" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
+    <row r="44" customHeight="1" ht="21">
+      <c r="A44" s="6"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
     <row r="45" customHeight="1" ht="21">
-      <c r="A45" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
     <row r="46" customHeight="1" ht="21">
-      <c r="A46" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
     </row>
     <row r="47" customHeight="1" ht="21">
-      <c r="A47" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
+      <c r="A47" s="6"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
     </row>
     <row r="48" customHeight="1" ht="21">
-      <c r="A48" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
+      <c r="A48" s="6"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
     </row>
     <row r="49" customHeight="1" ht="21">
-      <c r="A49" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
     </row>
@@ -2940,6 +4230,7 @@
     </row>
     <row r="53" customHeight="1" ht="30">
       <c r="A53" s="6"/>
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2957,115 +4248,26 @@
       <c r="Q53" s="5"/>
     </row>
     <row r="54" customHeight="1" ht="30">
-      <c r="A54" s="6"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
     </row>
     <row r="55" customHeight="1" ht="21">
-      <c r="A55" s="6"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
     </row>
     <row r="56" customHeight="1" ht="18">
-      <c r="A56" s="6"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
     </row>
     <row r="57" customHeight="1" ht="18">
-      <c r="A57" s="6"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
     </row>
     <row r="58" customHeight="1" ht="18">
-      <c r="A58" s="6"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
     <row r="59" customHeight="1" ht="51">
-      <c r="A59" s="6"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
@@ -3074,7 +4276,7 @@
       <c r="Q60" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="78">
     <mergeCell ref="A1:O6"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:O7"/>
@@ -3138,8 +4340,7 @@
     <mergeCell ref="G33:O33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:O34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:O35"/>
+    <mergeCell ref="A35:O35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="G36:O36"/>
     <mergeCell ref="C37:F37"/>
@@ -3150,21 +4351,10 @@
     <mergeCell ref="G39:O39"/>
     <mergeCell ref="C40:F40"/>
     <mergeCell ref="G40:O40"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:O42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="G43:O43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:O44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="G45:O45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="G46:O46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G47:O47"/>
-    <mergeCell ref="C48:O48"/>
-    <mergeCell ref="C49:O49"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:O41"/>
+    <mergeCell ref="C42:O42"/>
+    <mergeCell ref="C43:O43"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>

--- a/amk-main-public/classicTKP.xlsx
+++ b/amk-main-public/classicTKP.xlsx
@@ -399,6 +399,27 @@
   </si>
   <si>
     <t>30.</t>
+  </si>
+  <si>
+    <t>Концевые выключателей или блока управления привода</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> или блока управления привода</t>
+  </si>
+  <si>
+    <t>Концевые выключатели</t>
+  </si>
+  <si>
+    <t>Тип блока концевых выключателеей</t>
+  </si>
+  <si>
+    <t>Механический / электромеханический</t>
+  </si>
+  <si>
+    <t>Дата формирования  ТКП</t>
+  </si>
+  <si>
+    <t>Номер модернизации</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2093,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2659,6 +2680,12 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="6" applyFill="1" borderId="108" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="center"/>
       <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3015,8 +3042,8 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="A43" sqref="A43" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="C19" sqref="C19:F19" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3458,7 +3485,7 @@
         <v>117</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
@@ -3701,10 +3728,10 @@
         <v>57</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -3726,7 +3753,7 @@
         <v>59</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C30" s="38" t="s">
         <v>95</v>
@@ -3776,10 +3803,10 @@
         <v>63</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -4018,7 +4045,7 @@
         <v>81</v>
       </c>
       <c r="B42" s="201" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C42" s="202"/>
       <c r="D42" s="202"/>

--- a/amk-main-public/classicTKP.xlsx
+++ b/amk-main-public/classicTKP.xlsx
@@ -426,7 +426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,8 +553,50 @@
       <charset val="204"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,8 +640,11 @@
         <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
-  <borders count="109">
+  <borders count="140">
     <border>
       <left/>
       <right/>
@@ -2083,6 +2128,278 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="none">
+        <color theme="1"/>
+      </left>
+      <right style="none">
+        <color theme="1"/>
+      </right>
+      <top style="none">
+        <color theme="1"/>
+      </top>
+      <bottom style="none">
+        <color theme="1"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2093,7 +2410,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2686,6 +3003,374 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="109" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="109" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="110" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="111" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="112" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="113" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="114" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="115" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="116" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="117" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="118" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="119" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="120" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="121" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="122" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="123" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="124" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="125" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="126" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="127" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="128" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="109" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="109" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="110" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="111" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="112" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="113" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="114" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="115" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="116" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="117" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="129" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="118" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="119" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="130" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="120" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="121" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="131" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="122" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="123" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="132" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="124" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="125" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="133" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="126" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="127" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="134" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="128" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="123" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="135" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="136" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="19" applyFont="1" fillId="0" applyFill="1" borderId="137" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="top" horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="9" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="7" applyFill="1" borderId="138" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="9" applyFill="1" borderId="139" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="70" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="71" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="57" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="58" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="73" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="60" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="75" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="73" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="61" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="82" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="27" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="63" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="81" applyBorder="1" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="92" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="94" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="39" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="40" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="84" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="26" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="25" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="83" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="106" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="108" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="103" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="2" applyFill="1" borderId="104" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="104" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="105" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2716,9 +3401,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2019300" cy="1276350"/>
     <xdr:pic>
@@ -2737,7 +3422,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19050" y="38100"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="2019300" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3042,8 +3727,8 @@
   </sheetPr>
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="C19" sqref="C19:F19" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
+      <selection activeCell="G45" sqref="G45" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3065,130 +3750,125 @@
     <col min="15" max="15" width="14.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="0.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.5703125" style="8" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="0.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.77734375" customWidth="1"/>
     <col min="20" max="20" width="37.140625" customWidth="1"/>
     <col min="21" max="21" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="33">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
+      <c r="B1" s="256"/>
+      <c r="C1" s="256"/>
+      <c r="D1" s="256"/>
+      <c r="E1" s="256"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="256"/>
+      <c r="H1" s="256"/>
+      <c r="I1" s="256"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="256"/>
+      <c r="L1" s="256"/>
+      <c r="M1" s="256"/>
+      <c r="N1" s="256"/>
+      <c r="O1" s="258"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="T1" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="T1" s="262"/>
     </row>
     <row r="2" customHeight="1" ht="18">
-      <c r="A2" s="72"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
+      <c r="A2" s="256"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
+      <c r="G2" s="256"/>
+      <c r="H2" s="256"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="256"/>
+      <c r="K2" s="256"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="256"/>
+      <c r="O2" s="258"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="T2" s="10" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="3" customHeight="1" ht="18">
-      <c r="A3" s="72"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
+      <c r="A3" s="256"/>
+      <c r="B3" s="256"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
+      <c r="K3" s="256"/>
+      <c r="L3" s="256"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="256"/>
+      <c r="O3" s="258"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" customHeight="1" ht="18">
-      <c r="A4" s="72"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
+      <c r="A4" s="256"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="256"/>
+      <c r="O4" s="258"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" customHeight="1" ht="18">
-      <c r="A5" s="72"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
+      <c r="A5" s="257"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="257"/>
+      <c r="L5" s="257"/>
+      <c r="M5" s="257"/>
+      <c r="N5" s="257"/>
+      <c r="O5" s="259"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" customHeight="1" ht="0">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
@@ -3196,895 +3876,898 @@
       <c r="A7" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="144"/>
-      <c r="Q7" s="145"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
+      <c r="E7" s="263"/>
+      <c r="F7" s="263"/>
+      <c r="G7" s="263"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="264"/>
+      <c r="J7" s="264"/>
+      <c r="K7" s="264"/>
+      <c r="L7" s="264"/>
+      <c r="M7" s="264"/>
+      <c r="N7" s="264"/>
+      <c r="O7" s="264"/>
+      <c r="P7" s="265"/>
+      <c r="Q7" s="266"/>
     </row>
     <row r="8" customHeight="1" ht="21">
       <c r="A8" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="267"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="269" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="2" t="s">
+      <c r="F8" s="270"/>
+      <c r="G8" s="270"/>
+      <c r="H8" s="270"/>
+      <c r="I8" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="2" t="s">
+      <c r="J8" s="270"/>
+      <c r="K8" s="270"/>
+      <c r="L8" s="270"/>
+      <c r="M8" s="269" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="Q8" s="147"/>
+      <c r="N8" s="270"/>
+      <c r="O8" s="270"/>
+      <c r="P8" s="271"/>
+      <c r="Q8" s="272"/>
     </row>
     <row r="9" customHeight="1" ht="21">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="125"/>
+      <c r="B9" s="268"/>
+      <c r="C9" s="270"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="270"/>
+      <c r="G9" s="270"/>
+      <c r="H9" s="270"/>
+      <c r="I9" s="270"/>
+      <c r="J9" s="270"/>
+      <c r="K9" s="270"/>
+      <c r="L9" s="270"/>
+      <c r="M9" s="270"/>
+      <c r="N9" s="270"/>
+      <c r="O9" s="270"/>
+      <c r="P9" s="270"/>
+      <c r="Q9" s="273"/>
       <c r="R9" s="134"/>
     </row>
     <row r="10" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A10" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="128"/>
+      <c r="B10" s="274"/>
+      <c r="C10" s="270"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="270"/>
+      <c r="G10" s="270"/>
+      <c r="H10" s="270"/>
+      <c r="I10" s="270"/>
+      <c r="J10" s="270"/>
+      <c r="K10" s="270"/>
+      <c r="L10" s="270"/>
+      <c r="M10" s="270"/>
+      <c r="N10" s="270"/>
+      <c r="O10" s="270"/>
+      <c r="P10" s="270"/>
+      <c r="Q10" s="273"/>
       <c r="R10" s="135"/>
     </row>
     <row r="11" customHeight="1" ht="21" customFormat="1" s="3">
-      <c r="A11" s="150" t="s">
+      <c r="A11" s="275" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="276"/>
+      <c r="C11" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="64" t="s">
+      <c r="D11" s="278"/>
+      <c r="E11" s="278"/>
+      <c r="F11" s="278"/>
+      <c r="G11" s="277" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="67" t="s">
+      <c r="H11" s="279"/>
+      <c r="I11" s="280" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69" t="s">
+      <c r="J11" s="281"/>
+      <c r="K11" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="69" t="s">
+      <c r="L11" s="280"/>
+      <c r="M11" s="276"/>
+      <c r="N11" s="282" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="151"/>
+      <c r="O11" s="281"/>
+      <c r="P11" s="283"/>
+      <c r="Q11" s="284"/>
     </row>
     <row r="12" customHeight="1" ht="21">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="286" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="Q12" s="147"/>
+      <c r="C12" s="270"/>
+      <c r="D12" s="270"/>
+      <c r="E12" s="270"/>
+      <c r="F12" s="270"/>
+      <c r="G12" s="270"/>
+      <c r="H12" s="270"/>
+      <c r="I12" s="270"/>
+      <c r="J12" s="270"/>
+      <c r="K12" s="270"/>
+      <c r="L12" s="270"/>
+      <c r="M12" s="270"/>
+      <c r="N12" s="270"/>
+      <c r="O12" s="270"/>
+      <c r="P12" s="271"/>
+      <c r="Q12" s="272"/>
     </row>
     <row r="13" customHeight="1" ht="21">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="287" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="288" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="34"/>
-      <c r="Q13" s="147"/>
+      <c r="C13" s="289"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="290"/>
+      <c r="H13" s="290"/>
+      <c r="I13" s="290"/>
+      <c r="J13" s="290"/>
+      <c r="K13" s="290"/>
+      <c r="L13" s="290"/>
+      <c r="M13" s="290"/>
+      <c r="N13" s="290"/>
+      <c r="O13" s="291"/>
+      <c r="P13" s="271"/>
+      <c r="Q13" s="272"/>
     </row>
     <row r="14" customHeight="1" ht="21">
-      <c r="A14" s="159" t="s">
+      <c r="A14" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="293" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="158"/>
+      <c r="C14" s="294"/>
+      <c r="D14" s="295"/>
+      <c r="E14" s="295"/>
+      <c r="F14" s="295"/>
+      <c r="G14" s="295"/>
+      <c r="H14" s="295"/>
+      <c r="I14" s="295"/>
+      <c r="J14" s="295"/>
+      <c r="K14" s="295"/>
+      <c r="L14" s="295"/>
+      <c r="M14" s="295"/>
+      <c r="N14" s="295"/>
+      <c r="O14" s="296"/>
+      <c r="P14" s="297"/>
+      <c r="Q14" s="298"/>
     </row>
     <row r="15" customHeight="1" ht="21">
-      <c r="A15" s="183" t="s">
+      <c r="A15" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="184"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="184"/>
-      <c r="G15" s="184"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="184"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="184"/>
-      <c r="O15" s="185"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="B15" s="300"/>
+      <c r="C15" s="300"/>
+      <c r="D15" s="300"/>
+      <c r="E15" s="300"/>
+      <c r="F15" s="300"/>
+      <c r="G15" s="300"/>
+      <c r="H15" s="300"/>
+      <c r="I15" s="300"/>
+      <c r="J15" s="300"/>
+      <c r="K15" s="300"/>
+      <c r="L15" s="300"/>
+      <c r="M15" s="300"/>
+      <c r="N15" s="300"/>
+      <c r="O15" s="301"/>
+      <c r="P15" s="302"/>
+      <c r="Q15" s="302"/>
     </row>
     <row r="16" customHeight="1" ht="21">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="303" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="304" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="175" t="s">
+      <c r="C16" s="305" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="178"/>
-      <c r="O16" s="179"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="D16" s="306"/>
+      <c r="E16" s="306"/>
+      <c r="F16" s="307"/>
+      <c r="G16" s="308"/>
+      <c r="H16" s="308"/>
+      <c r="I16" s="308"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
+      <c r="M16" s="308"/>
+      <c r="N16" s="308"/>
+      <c r="O16" s="309"/>
+      <c r="P16" s="302"/>
+      <c r="Q16" s="302"/>
     </row>
     <row r="17" customHeight="1" ht="21">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="287" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="310" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="311" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="D17" s="312"/>
+      <c r="E17" s="312"/>
+      <c r="F17" s="313"/>
+      <c r="G17" s="270"/>
+      <c r="H17" s="270"/>
+      <c r="I17" s="270"/>
+      <c r="J17" s="270"/>
+      <c r="K17" s="270"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="270"/>
+      <c r="N17" s="270"/>
+      <c r="O17" s="273"/>
+      <c r="P17" s="302"/>
+      <c r="Q17" s="302"/>
     </row>
     <row r="18" customHeight="1" ht="21">
-      <c r="A18" s="126" t="s">
+      <c r="A18" s="287" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="310" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="311" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
+      <c r="D18" s="312"/>
+      <c r="E18" s="312"/>
+      <c r="F18" s="313"/>
+      <c r="G18" s="270"/>
+      <c r="H18" s="270"/>
+      <c r="I18" s="270"/>
+      <c r="J18" s="270"/>
+      <c r="K18" s="270"/>
+      <c r="L18" s="270"/>
+      <c r="M18" s="270"/>
+      <c r="N18" s="270"/>
+      <c r="O18" s="273"/>
+      <c r="P18" s="302"/>
+      <c r="Q18" s="302"/>
     </row>
     <row r="19" customHeight="1" ht="21">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="287" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="310" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="311" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
+      <c r="D19" s="312"/>
+      <c r="E19" s="312"/>
+      <c r="F19" s="312"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="270"/>
+      <c r="I19" s="270"/>
+      <c r="J19" s="270"/>
+      <c r="K19" s="270"/>
+      <c r="L19" s="270"/>
+      <c r="M19" s="270"/>
+      <c r="N19" s="270"/>
+      <c r="O19" s="273"/>
+      <c r="P19" s="302"/>
+      <c r="Q19" s="302"/>
     </row>
     <row r="20" customHeight="1" ht="33">
-      <c r="A20" s="126" t="s">
+      <c r="A20" s="287" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="310" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="311" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
+      <c r="D20" s="312"/>
+      <c r="E20" s="312"/>
+      <c r="F20" s="312"/>
+      <c r="G20" s="270"/>
+      <c r="H20" s="270"/>
+      <c r="I20" s="270"/>
+      <c r="J20" s="270"/>
+      <c r="K20" s="270"/>
+      <c r="L20" s="270"/>
+      <c r="M20" s="270"/>
+      <c r="N20" s="270"/>
+      <c r="O20" s="273"/>
+      <c r="P20" s="302"/>
+      <c r="Q20" s="302"/>
     </row>
     <row r="21" customHeight="1" ht="33">
-      <c r="A21" s="126" t="s">
+      <c r="A21" s="287" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="310" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="311" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
+      <c r="D21" s="312"/>
+      <c r="E21" s="312"/>
+      <c r="F21" s="313"/>
+      <c r="G21" s="270"/>
+      <c r="H21" s="270"/>
+      <c r="I21" s="270"/>
+      <c r="J21" s="270"/>
+      <c r="K21" s="270"/>
+      <c r="L21" s="270"/>
+      <c r="M21" s="270"/>
+      <c r="N21" s="270"/>
+      <c r="O21" s="273"/>
+      <c r="P21" s="302"/>
+      <c r="Q21" s="302"/>
     </row>
     <row r="22" customHeight="1" ht="33">
-      <c r="A22" s="126" t="s">
+      <c r="A22" s="287" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="310" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="314" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
+      <c r="D22" s="315"/>
+      <c r="E22" s="315"/>
+      <c r="F22" s="316"/>
+      <c r="G22" s="317"/>
+      <c r="H22" s="317"/>
+      <c r="I22" s="317"/>
+      <c r="J22" s="317"/>
+      <c r="K22" s="317"/>
+      <c r="L22" s="317"/>
+      <c r="M22" s="317"/>
+      <c r="N22" s="317"/>
+      <c r="O22" s="273"/>
+      <c r="P22" s="302"/>
+      <c r="Q22" s="302"/>
     </row>
     <row r="23" customHeight="1" ht="36">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="287" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="318" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
+      <c r="C23" s="319"/>
+      <c r="D23" s="320"/>
+      <c r="E23" s="320"/>
+      <c r="F23" s="318"/>
+      <c r="G23" s="317"/>
+      <c r="H23" s="317"/>
+      <c r="I23" s="317"/>
+      <c r="J23" s="317"/>
+      <c r="K23" s="317"/>
+      <c r="L23" s="317"/>
+      <c r="M23" s="317"/>
+      <c r="N23" s="317"/>
+      <c r="O23" s="273"/>
+      <c r="P23" s="302"/>
+      <c r="Q23" s="302"/>
     </row>
     <row r="24" customHeight="1" ht="48">
-      <c r="A24" s="126" t="s">
+      <c r="A24" s="287" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="313" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="319" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
+      <c r="D24" s="320"/>
+      <c r="E24" s="320"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="270"/>
+      <c r="H24" s="270"/>
+      <c r="I24" s="270"/>
+      <c r="J24" s="270"/>
+      <c r="K24" s="270"/>
+      <c r="L24" s="270"/>
+      <c r="M24" s="270"/>
+      <c r="N24" s="270"/>
+      <c r="O24" s="273"/>
+      <c r="P24" s="302"/>
+      <c r="Q24" s="302"/>
     </row>
     <row r="25" customHeight="1" ht="45">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="287" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="318" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="311" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="D25" s="312"/>
+      <c r="E25" s="312"/>
+      <c r="F25" s="313"/>
+      <c r="G25" s="270"/>
+      <c r="H25" s="270"/>
+      <c r="I25" s="270"/>
+      <c r="J25" s="270"/>
+      <c r="K25" s="270"/>
+      <c r="L25" s="270"/>
+      <c r="M25" s="270"/>
+      <c r="N25" s="270"/>
+      <c r="O25" s="273"/>
+      <c r="P25" s="302"/>
+      <c r="Q25" s="302"/>
     </row>
     <row r="26" customHeight="1" ht="30">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="287" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="318" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="311" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="D26" s="312"/>
+      <c r="E26" s="312"/>
+      <c r="F26" s="313"/>
+      <c r="G26" s="270"/>
+      <c r="H26" s="270"/>
+      <c r="I26" s="270"/>
+      <c r="J26" s="270"/>
+      <c r="K26" s="270"/>
+      <c r="L26" s="270"/>
+      <c r="M26" s="270"/>
+      <c r="N26" s="270"/>
+      <c r="O26" s="273"/>
+      <c r="P26" s="302"/>
+      <c r="Q26" s="302"/>
     </row>
     <row r="27" customHeight="1" ht="24">
-      <c r="A27" s="124" t="s">
+      <c r="A27" s="285" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="318" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="C27" s="311"/>
+      <c r="D27" s="312"/>
+      <c r="E27" s="312"/>
+      <c r="F27" s="313"/>
+      <c r="G27" s="270"/>
+      <c r="H27" s="270"/>
+      <c r="I27" s="270"/>
+      <c r="J27" s="270"/>
+      <c r="K27" s="270"/>
+      <c r="L27" s="270"/>
+      <c r="M27" s="270"/>
+      <c r="N27" s="270"/>
+      <c r="O27" s="273"/>
+      <c r="P27" s="302"/>
+      <c r="Q27" s="302"/>
     </row>
     <row r="28" customHeight="1" ht="33">
-      <c r="A28" s="126" t="s">
+      <c r="A28" s="287" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="318" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="319" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
+      <c r="D28" s="320"/>
+      <c r="E28" s="320"/>
+      <c r="F28" s="318"/>
+      <c r="G28" s="270"/>
+      <c r="H28" s="270"/>
+      <c r="I28" s="270"/>
+      <c r="J28" s="270"/>
+      <c r="K28" s="270"/>
+      <c r="L28" s="270"/>
+      <c r="M28" s="270"/>
+      <c r="N28" s="270"/>
+      <c r="O28" s="273"/>
+      <c r="P28" s="302"/>
+      <c r="Q28" s="302"/>
     </row>
     <row r="29" customHeight="1" ht="54">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="287" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="318" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="319" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
+      <c r="D29" s="320"/>
+      <c r="E29" s="320"/>
+      <c r="F29" s="318"/>
+      <c r="G29" s="270"/>
+      <c r="H29" s="270"/>
+      <c r="I29" s="270"/>
+      <c r="J29" s="270"/>
+      <c r="K29" s="270"/>
+      <c r="L29" s="270"/>
+      <c r="M29" s="270"/>
+      <c r="N29" s="270"/>
+      <c r="O29" s="273"/>
+      <c r="P29" s="302"/>
+      <c r="Q29" s="302"/>
     </row>
     <row r="30" customHeight="1" ht="45">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="287" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="318" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="319" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
+      <c r="D30" s="320"/>
+      <c r="E30" s="320"/>
+      <c r="F30" s="318"/>
+      <c r="G30" s="270"/>
+      <c r="H30" s="270"/>
+      <c r="I30" s="270"/>
+      <c r="J30" s="270"/>
+      <c r="K30" s="270"/>
+      <c r="L30" s="270"/>
+      <c r="M30" s="270"/>
+      <c r="N30" s="270"/>
+      <c r="O30" s="273"/>
+      <c r="P30" s="302"/>
+      <c r="Q30" s="302"/>
     </row>
     <row r="31" customHeight="1" ht="30">
-      <c r="A31" s="126" t="s">
+      <c r="A31" s="287" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="318" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="319" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
+      <c r="D31" s="320"/>
+      <c r="E31" s="320"/>
+      <c r="F31" s="318"/>
+      <c r="G31" s="270"/>
+      <c r="H31" s="270"/>
+      <c r="I31" s="270"/>
+      <c r="J31" s="270"/>
+      <c r="K31" s="270"/>
+      <c r="L31" s="270"/>
+      <c r="M31" s="270"/>
+      <c r="N31" s="270"/>
+      <c r="O31" s="273"/>
+      <c r="P31" s="302"/>
+      <c r="Q31" s="302"/>
     </row>
     <row r="32" customHeight="1" ht="33">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="287" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="318" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="319" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
+      <c r="D32" s="320"/>
+      <c r="E32" s="320"/>
+      <c r="F32" s="318"/>
+      <c r="G32" s="270"/>
+      <c r="H32" s="270"/>
+      <c r="I32" s="270"/>
+      <c r="J32" s="270"/>
+      <c r="K32" s="270"/>
+      <c r="L32" s="270"/>
+      <c r="M32" s="270"/>
+      <c r="N32" s="270"/>
+      <c r="O32" s="273"/>
+      <c r="P32" s="302"/>
+      <c r="Q32" s="302"/>
     </row>
     <row r="33" customHeight="1" ht="30">
-      <c r="A33" s="126" t="s">
+      <c r="A33" s="287" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="310" t="s">
         <v>101</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+      <c r="C33" s="310"/>
+      <c r="D33" s="310"/>
+      <c r="E33" s="310"/>
+      <c r="F33" s="310"/>
+      <c r="G33" s="270"/>
+      <c r="H33" s="270"/>
+      <c r="I33" s="270"/>
+      <c r="J33" s="270"/>
+      <c r="K33" s="270"/>
+      <c r="L33" s="270"/>
+      <c r="M33" s="270"/>
+      <c r="N33" s="270"/>
+      <c r="O33" s="273"/>
+      <c r="P33" s="302"/>
+      <c r="Q33" s="302"/>
     </row>
     <row r="34" customHeight="1" ht="51">
-      <c r="A34" s="126" t="s">
+      <c r="A34" s="287" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="321" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="161" t="s">
+      <c r="C34" s="322" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="162"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+      <c r="D34" s="322"/>
+      <c r="E34" s="322"/>
+      <c r="F34" s="322"/>
+      <c r="G34" s="323"/>
+      <c r="H34" s="323"/>
+      <c r="I34" s="323"/>
+      <c r="J34" s="323"/>
+      <c r="K34" s="323"/>
+      <c r="L34" s="323"/>
+      <c r="M34" s="323"/>
+      <c r="N34" s="323"/>
+      <c r="O34" s="324"/>
+      <c r="P34" s="302"/>
+      <c r="Q34" s="302"/>
     </row>
     <row r="35" customHeight="1" ht="48">
-      <c r="A35" s="163" t="s">
+      <c r="A35" s="325" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="164"/>
-      <c r="C35" s="164"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="164"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="164"/>
-      <c r="L35" s="164"/>
-      <c r="M35" s="164"/>
-      <c r="N35" s="164"/>
-      <c r="O35" s="165"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
+      <c r="B35" s="326"/>
+      <c r="C35" s="326"/>
+      <c r="D35" s="326"/>
+      <c r="E35" s="326"/>
+      <c r="F35" s="326"/>
+      <c r="G35" s="326"/>
+      <c r="H35" s="326"/>
+      <c r="I35" s="326"/>
+      <c r="J35" s="326"/>
+      <c r="K35" s="326"/>
+      <c r="L35" s="326"/>
+      <c r="M35" s="326"/>
+      <c r="N35" s="326"/>
+      <c r="O35" s="327"/>
+      <c r="P35" s="302"/>
+      <c r="Q35" s="302"/>
     </row>
     <row r="36" customHeight="1" ht="48">
-      <c r="A36" s="126" t="s">
+      <c r="A36" s="287" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="310" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="328" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="125"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
+      <c r="D36" s="328"/>
+      <c r="E36" s="328"/>
+      <c r="F36" s="328"/>
+      <c r="G36" s="270"/>
+      <c r="H36" s="270"/>
+      <c r="I36" s="270"/>
+      <c r="J36" s="270"/>
+      <c r="K36" s="270"/>
+      <c r="L36" s="270"/>
+      <c r="M36" s="270"/>
+      <c r="N36" s="270"/>
+      <c r="O36" s="273"/>
+      <c r="P36" s="302"/>
+      <c r="Q36" s="302"/>
     </row>
     <row r="37" customHeight="1" ht="36">
-      <c r="A37" s="126" t="s">
+      <c r="A37" s="287" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="310" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="328" t="s">
         <v>96</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="125"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
+      <c r="D37" s="328"/>
+      <c r="E37" s="328"/>
+      <c r="F37" s="328"/>
+      <c r="G37" s="270"/>
+      <c r="H37" s="270"/>
+      <c r="I37" s="270"/>
+      <c r="J37" s="270"/>
+      <c r="K37" s="270"/>
+      <c r="L37" s="270"/>
+      <c r="M37" s="270"/>
+      <c r="N37" s="270"/>
+      <c r="O37" s="273"/>
+      <c r="P37" s="302"/>
+      <c r="Q37" s="302"/>
     </row>
     <row r="38" customHeight="1" ht="33">
-      <c r="A38" s="126" t="s">
+      <c r="A38" s="287" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="310" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="328" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="125"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
+      <c r="D38" s="328"/>
+      <c r="E38" s="328"/>
+      <c r="F38" s="328"/>
+      <c r="G38" s="270"/>
+      <c r="H38" s="270"/>
+      <c r="I38" s="270"/>
+      <c r="J38" s="270"/>
+      <c r="K38" s="270"/>
+      <c r="L38" s="270"/>
+      <c r="M38" s="270"/>
+      <c r="N38" s="270"/>
+      <c r="O38" s="273"/>
+      <c r="P38" s="302"/>
+      <c r="Q38" s="302"/>
     </row>
     <row r="39" customHeight="1" ht="39">
-      <c r="A39" s="126" t="s">
+      <c r="A39" s="287" t="s">
         <v>118</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="310" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="328" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="125"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
+      <c r="D39" s="328"/>
+      <c r="E39" s="328"/>
+      <c r="F39" s="328"/>
+      <c r="G39" s="270"/>
+      <c r="H39" s="270"/>
+      <c r="I39" s="270"/>
+      <c r="J39" s="270"/>
+      <c r="K39" s="270"/>
+      <c r="L39" s="270"/>
+      <c r="M39" s="270"/>
+      <c r="N39" s="270"/>
+      <c r="O39" s="273"/>
+      <c r="P39" s="302"/>
+      <c r="Q39" s="302"/>
     </row>
     <row r="40" customHeight="1" ht="42">
-      <c r="A40" s="126" t="s">
+      <c r="A40" s="287" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="310" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="188" t="s">
+      <c r="C40" s="329" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
-      <c r="N40" s="105"/>
-      <c r="O40" s="162"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
+      <c r="D40" s="329"/>
+      <c r="E40" s="329"/>
+      <c r="F40" s="329"/>
+      <c r="G40" s="323"/>
+      <c r="H40" s="323"/>
+      <c r="I40" s="323"/>
+      <c r="J40" s="323"/>
+      <c r="K40" s="323"/>
+      <c r="L40" s="323"/>
+      <c r="M40" s="323"/>
+      <c r="N40" s="323"/>
+      <c r="O40" s="324"/>
+      <c r="P40" s="302"/>
+      <c r="Q40" s="302"/>
     </row>
     <row r="41" customHeight="1" ht="21">
-      <c r="A41" s="159" t="s">
+      <c r="A41" s="292" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="192" t="s">
+      <c r="B41" s="330" t="s">
         <v>88</v>
       </c>
-      <c r="C41" s="193"/>
-      <c r="D41" s="193"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="194"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="194"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="194"/>
-      <c r="L41" s="194"/>
-      <c r="M41" s="194"/>
-      <c r="N41" s="194"/>
-      <c r="O41" s="195"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
+      <c r="C41" s="331"/>
+      <c r="D41" s="331"/>
+      <c r="E41" s="331"/>
+      <c r="F41" s="331"/>
+      <c r="G41" s="332"/>
+      <c r="H41" s="332"/>
+      <c r="I41" s="332"/>
+      <c r="J41" s="332"/>
+      <c r="K41" s="332"/>
+      <c r="L41" s="332"/>
+      <c r="M41" s="332"/>
+      <c r="N41" s="332"/>
+      <c r="O41" s="333"/>
+      <c r="P41" s="302"/>
+      <c r="Q41" s="302"/>
     </row>
     <row r="42" customHeight="1" ht="21">
-      <c r="A42" s="200" t="s">
+      <c r="A42" s="334" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="201" t="s">
+      <c r="B42" s="335" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="202"/>
-      <c r="D42" s="202"/>
-      <c r="E42" s="202"/>
-      <c r="F42" s="202"/>
-      <c r="G42" s="202"/>
-      <c r="H42" s="202"/>
-      <c r="I42" s="202"/>
-      <c r="J42" s="202"/>
-      <c r="K42" s="202"/>
-      <c r="L42" s="202"/>
-      <c r="M42" s="202"/>
-      <c r="N42" s="202"/>
-      <c r="O42" s="203"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
+      <c r="C42" s="336"/>
+      <c r="D42" s="336"/>
+      <c r="E42" s="336"/>
+      <c r="F42" s="336"/>
+      <c r="G42" s="336"/>
+      <c r="H42" s="336"/>
+      <c r="I42" s="336"/>
+      <c r="J42" s="336"/>
+      <c r="K42" s="336"/>
+      <c r="L42" s="336"/>
+      <c r="M42" s="336"/>
+      <c r="N42" s="336"/>
+      <c r="O42" s="337"/>
+      <c r="P42" s="302"/>
+      <c r="Q42" s="302"/>
     </row>
     <row r="43" customHeight="1" ht="21">
-      <c r="A43" s="196" t="s">
+      <c r="A43" s="338" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="197" t="s">
+      <c r="B43" s="339" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="198"/>
-      <c r="D43" s="198"/>
-      <c r="E43" s="198"/>
-      <c r="F43" s="198"/>
-      <c r="G43" s="198"/>
-      <c r="H43" s="198"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="198"/>
-      <c r="K43" s="198"/>
-      <c r="L43" s="198"/>
-      <c r="M43" s="198"/>
-      <c r="N43" s="198"/>
-      <c r="O43" s="199"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
+      <c r="C43" s="340"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
+      <c r="F43" s="340"/>
+      <c r="G43" s="340"/>
+      <c r="H43" s="340"/>
+      <c r="I43" s="340"/>
+      <c r="J43" s="340"/>
+      <c r="K43" s="340"/>
+      <c r="L43" s="340"/>
+      <c r="M43" s="340"/>
+      <c r="N43" s="340"/>
+      <c r="O43" s="341"/>
+      <c r="P43" s="302"/>
+      <c r="Q43" s="302"/>
     </row>
     <row r="44" customHeight="1" ht="21">
       <c r="A44" s="6"/>
@@ -4304,7 +4987,7 @@
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="A1:O6"/>
+    <mergeCell ref="A1:O5"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="A8:D8"/>

--- a/amk-main-public/classicTKP.xlsx
+++ b/amk-main-public/classicTKP.xlsx
@@ -421,12 +421,57 @@
   <si>
     <t>Номер модернизации</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Внутренний номер ТКП (совпадает с номером ОЛ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВАШ ПЕРСОНАЛЬНЫЙ МЕНЕДЖЕР</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Организация - Заказчик</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Проект (необязательная ячейка): </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Коммерческая часть</t>
+  </si>
+  <si>
+    <t>Параметры заказа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запорный / Регулирующий </t>
+  </si>
+  <si>
+    <t>Поворотный / Многооборотный</t>
+  </si>
+  <si>
+    <t>Взрывозащита / Рудничное /АЭС и тд</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Взрывозащита / Рудничное / АЭС и тд</t>
+  </si>
+  <si>
+    <t>Тип блока концевых выключателей</t>
+  </si>
+  <si>
+    <t>Кг</t>
+  </si>
+  <si>
+    <t>Об./мин</t>
+  </si>
+  <si>
+    <t>Механический / Электромеханический</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +640,33 @@
       <charset val="204"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <charset val="204"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2410,7 +2482,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3371,6 +3443,87 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="2" applyFill="1" borderId="105" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="84" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="2" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="2" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="26" applyFont="1" fillId="2" applyFill="1" borderId="84" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="2" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="27" applyFont="1" fillId="2" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="123" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="136" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="28" applyFont="1" fillId="0" applyFill="1" borderId="66" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3401,9 +3554,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2019300" cy="1276350"/>
     <xdr:pic>
@@ -3414,7 +3567,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip r:embed="rId2"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -3422,7 +3575,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="9525" y="19050"/>
           <a:ext cx="2019300" cy="1276350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3728,7 +3881,7 @@
   <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="G45" sqref="G45" activeCellId="0"/>
+      <selection activeCell="T15" sqref="T15" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3756,100 +3909,100 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="33">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="364" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
-      <c r="H1" s="256"/>
-      <c r="I1" s="256"/>
-      <c r="J1" s="256"/>
-      <c r="K1" s="256"/>
-      <c r="L1" s="256"/>
-      <c r="M1" s="256"/>
-      <c r="N1" s="256"/>
-      <c r="O1" s="258"/>
+      <c r="B1" s="364"/>
+      <c r="C1" s="364"/>
+      <c r="D1" s="364"/>
+      <c r="E1" s="364"/>
+      <c r="F1" s="364"/>
+      <c r="G1" s="364"/>
+      <c r="H1" s="364"/>
+      <c r="I1" s="364"/>
+      <c r="J1" s="364"/>
+      <c r="K1" s="364"/>
+      <c r="L1" s="364"/>
+      <c r="M1" s="364"/>
+      <c r="N1" s="364"/>
+      <c r="O1" s="365"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="T1" s="262"/>
     </row>
     <row r="2" customHeight="1" ht="18">
-      <c r="A2" s="256"/>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="256"/>
-      <c r="O2" s="258"/>
+      <c r="A2" s="364"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
+      <c r="H2" s="364"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="364"/>
+      <c r="K2" s="364"/>
+      <c r="L2" s="364"/>
+      <c r="M2" s="364"/>
+      <c r="N2" s="364"/>
+      <c r="O2" s="365"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
     <row r="3" customHeight="1" ht="18">
-      <c r="A3" s="256"/>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="256"/>
-      <c r="O3" s="258"/>
+      <c r="A3" s="364"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="364"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
+      <c r="H3" s="364"/>
+      <c r="I3" s="364"/>
+      <c r="J3" s="364"/>
+      <c r="K3" s="364"/>
+      <c r="L3" s="364"/>
+      <c r="M3" s="364"/>
+      <c r="N3" s="364"/>
+      <c r="O3" s="365"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" customHeight="1" ht="18">
-      <c r="A4" s="256"/>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="256"/>
-      <c r="M4" s="256"/>
-      <c r="N4" s="256"/>
-      <c r="O4" s="258"/>
+      <c r="A4" s="364"/>
+      <c r="B4" s="364"/>
+      <c r="C4" s="364"/>
+      <c r="D4" s="364"/>
+      <c r="E4" s="364"/>
+      <c r="F4" s="364"/>
+      <c r="G4" s="364"/>
+      <c r="H4" s="364"/>
+      <c r="I4" s="364"/>
+      <c r="J4" s="364"/>
+      <c r="K4" s="364"/>
+      <c r="L4" s="364"/>
+      <c r="M4" s="364"/>
+      <c r="N4" s="364"/>
+      <c r="O4" s="365"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" customHeight="1" ht="18">
-      <c r="A5" s="257"/>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
-      <c r="K5" s="257"/>
-      <c r="L5" s="257"/>
-      <c r="M5" s="257"/>
-      <c r="N5" s="257"/>
-      <c r="O5" s="259"/>
+      <c r="A5" s="366"/>
+      <c r="B5" s="366"/>
+      <c r="C5" s="366"/>
+      <c r="D5" s="366"/>
+      <c r="E5" s="366"/>
+      <c r="F5" s="366"/>
+      <c r="G5" s="366"/>
+      <c r="H5" s="366"/>
+      <c r="I5" s="366"/>
+      <c r="J5" s="366"/>
+      <c r="K5" s="366"/>
+      <c r="L5" s="366"/>
+      <c r="M5" s="366"/>
+      <c r="N5" s="366"/>
+      <c r="O5" s="367"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
@@ -3874,7 +4027,7 @@
     </row>
     <row r="7" customHeight="1" ht="21">
       <c r="A7" s="141" t="s">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="B7" s="263"/>
       <c r="C7" s="263"/>
@@ -3895,25 +4048,25 @@
     </row>
     <row r="8" customHeight="1" ht="21">
       <c r="A8" s="146" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="B8" s="267"/>
       <c r="C8" s="267"/>
       <c r="D8" s="268"/>
-      <c r="E8" s="269" t="s">
+      <c r="E8" s="354" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="270"/>
       <c r="G8" s="270"/>
       <c r="H8" s="270"/>
-      <c r="I8" s="269" t="s">
+      <c r="I8" s="354" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="270"/>
       <c r="K8" s="270"/>
       <c r="L8" s="270"/>
-      <c r="M8" s="269" t="s">
-        <v>5</v>
+      <c r="M8" s="354" t="s">
+        <v>141</v>
       </c>
       <c r="N8" s="270"/>
       <c r="O8" s="270"/>
@@ -3922,7 +4075,7 @@
     </row>
     <row r="9" customHeight="1" ht="21">
       <c r="A9" s="146" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="B9" s="268"/>
       <c r="C9" s="270"/>
@@ -3944,7 +4097,7 @@
     </row>
     <row r="10" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A10" s="149" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="B10" s="274"/>
       <c r="C10" s="270"/>
@@ -3966,32 +4119,32 @@
     </row>
     <row r="11" customHeight="1" ht="21" customFormat="1" s="3">
       <c r="A11" s="275" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="B11" s="276"/>
-      <c r="C11" s="277" t="s">
+      <c r="C11" s="348" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="278"/>
-      <c r="E11" s="278"/>
-      <c r="F11" s="278"/>
-      <c r="G11" s="277" t="s">
+      <c r="D11" s="349"/>
+      <c r="E11" s="349"/>
+      <c r="F11" s="349"/>
+      <c r="G11" s="348" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="279"/>
-      <c r="I11" s="280" t="s">
+      <c r="H11" s="350"/>
+      <c r="I11" s="349" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="281"/>
-      <c r="K11" s="282" t="s">
+      <c r="J11" s="350"/>
+      <c r="K11" s="348" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="280"/>
-      <c r="M11" s="276"/>
-      <c r="N11" s="282" t="s">
+      <c r="L11" s="349"/>
+      <c r="M11" s="350"/>
+      <c r="N11" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="281"/>
+      <c r="O11" s="350"/>
       <c r="P11" s="283"/>
       <c r="Q11" s="284"/>
     </row>
@@ -4000,7 +4153,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="286" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C12" s="270"/>
       <c r="D12" s="270"/>
@@ -4065,23 +4218,23 @@
       <c r="Q14" s="298"/>
     </row>
     <row r="15" customHeight="1" ht="21">
-      <c r="A15" s="299" t="s">
+      <c r="A15" s="355" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="300"/>
-      <c r="C15" s="300"/>
-      <c r="D15" s="300"/>
-      <c r="E15" s="300"/>
-      <c r="F15" s="300"/>
-      <c r="G15" s="300"/>
-      <c r="H15" s="300"/>
-      <c r="I15" s="300"/>
-      <c r="J15" s="300"/>
-      <c r="K15" s="300"/>
-      <c r="L15" s="300"/>
-      <c r="M15" s="300"/>
-      <c r="N15" s="300"/>
-      <c r="O15" s="301"/>
+      <c r="B15" s="356"/>
+      <c r="C15" s="356"/>
+      <c r="D15" s="356"/>
+      <c r="E15" s="356"/>
+      <c r="F15" s="356"/>
+      <c r="G15" s="356"/>
+      <c r="H15" s="356"/>
+      <c r="I15" s="356"/>
+      <c r="J15" s="356"/>
+      <c r="K15" s="356"/>
+      <c r="L15" s="356"/>
+      <c r="M15" s="356"/>
+      <c r="N15" s="356"/>
+      <c r="O15" s="357"/>
       <c r="P15" s="302"/>
       <c r="Q15" s="302"/>
     </row>
@@ -4093,7 +4246,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="305" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="D16" s="306"/>
       <c r="E16" s="306"/>
@@ -4118,7 +4271,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="311" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="D17" s="312"/>
       <c r="E17" s="312"/>
@@ -4143,7 +4296,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="311" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="D18" s="312"/>
       <c r="E18" s="312"/>
@@ -4243,7 +4396,7 @@
         <v>115</v>
       </c>
       <c r="C22" s="314" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="D22" s="315"/>
       <c r="E22" s="315"/>
@@ -4411,10 +4564,10 @@
         <v>57</v>
       </c>
       <c r="B29" s="318" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C29" s="319" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D29" s="320"/>
       <c r="E29" s="320"/>
@@ -4537,7 +4690,7 @@
         <v>77</v>
       </c>
       <c r="C34" s="322" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="D34" s="322"/>
       <c r="E34" s="322"/>
@@ -4555,23 +4708,23 @@
       <c r="Q34" s="302"/>
     </row>
     <row r="35" customHeight="1" ht="48">
-      <c r="A35" s="325" t="s">
+      <c r="A35" s="361" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="326"/>
-      <c r="C35" s="326"/>
-      <c r="D35" s="326"/>
-      <c r="E35" s="326"/>
-      <c r="F35" s="326"/>
-      <c r="G35" s="326"/>
-      <c r="H35" s="326"/>
-      <c r="I35" s="326"/>
-      <c r="J35" s="326"/>
-      <c r="K35" s="326"/>
-      <c r="L35" s="326"/>
-      <c r="M35" s="326"/>
-      <c r="N35" s="326"/>
-      <c r="O35" s="327"/>
+      <c r="B35" s="362"/>
+      <c r="C35" s="362"/>
+      <c r="D35" s="362"/>
+      <c r="E35" s="362"/>
+      <c r="F35" s="362"/>
+      <c r="G35" s="362"/>
+      <c r="H35" s="362"/>
+      <c r="I35" s="362"/>
+      <c r="J35" s="362"/>
+      <c r="K35" s="362"/>
+      <c r="L35" s="362"/>
+      <c r="M35" s="362"/>
+      <c r="N35" s="362"/>
+      <c r="O35" s="363"/>
       <c r="P35" s="302"/>
       <c r="Q35" s="302"/>
     </row>
